--- a/salida_muestra.xlsx
+++ b/salida_muestra.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC ONE\Documents\bioestadistica_adicional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BCB148-E5A2-4B7E-B3BA-49ACE7504303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855054E7-00D8-4DDF-A393-742449A0110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcoxon" sheetId="2" r:id="rId1"/>
     <sheet name="Mann-Whitney" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Mann-Whitney (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Wilcoxon pareado" sheetId="4" r:id="rId4"/>
+    <sheet name="Kruskal-Wallis" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>CV</t>
   </si>
@@ -124,6 +126,57 @@
   <si>
     <t>Infante</t>
   </si>
+  <si>
+    <t>avestruz</t>
+  </si>
+  <si>
+    <t>carotid</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>abs.diff</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>Ri^2</t>
+  </si>
+  <si>
+    <t>Ri+</t>
+  </si>
+  <si>
+    <t>Ri-</t>
+  </si>
+  <si>
+    <t>Tcrítico</t>
+  </si>
+  <si>
+    <t>¿altura ≠ 7?</t>
+  </si>
+  <si>
+    <t>lugar</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Suma empates</t>
+  </si>
+  <si>
+    <t>¿d.altura ≠ 0?</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,11 +237,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,19 +273,61 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="43">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -239,7 +343,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -271,7 +435,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -314,28 +477,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF2E58AE-E561-4BC1-9079-0DCD70C94C70}" name="Tabla1" displayName="Tabla1" ref="A1:G22" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:G21" xr:uid="{CF2E58AE-E561-4BC1-9079-0DCD70C94C70}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="A1:A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF2E58AE-E561-4BC1-9079-0DCD70C94C70}" name="Tabla1" displayName="Tabla1" ref="A1:H32" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A1:H31" xr:uid="{CF2E58AE-E561-4BC1-9079-0DCD70C94C70}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="4" xr3:uid="{8C523DA2-5A7E-4761-9C7F-80F37279E57B}" name="index" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{63C3D1DB-77BE-421B-944D-2410E02255A4}" name="altura" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9CD64A83-E6F5-4282-ACF4-FFA7888D2912}" name="altura-μ" dataDxfId="9" totalsRowDxfId="8">
-      <calculatedColumnFormula>B2-6</calculatedColumnFormula>
+  <tableColumns count="8">
+    <tableColumn id="4" xr3:uid="{8C523DA2-5A7E-4761-9C7F-80F37279E57B}" name="index" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{63C3D1DB-77BE-421B-944D-2410E02255A4}" name="altura" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{9CD64A83-E6F5-4282-ACF4-FFA7888D2912}" name="altura-μ" dataDxfId="36" totalsRowDxfId="35">
+      <calculatedColumnFormula>Tabla1[[#This Row],[altura]]-7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7DEE57BF-C07B-4651-B448-52B6C08A1FBB}" name="Valor abs" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{7DEE57BF-C07B-4651-B448-52B6C08A1FBB}" name="Valor abs" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>ABS(Tabla1[[#This Row],[altura-μ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{140C70A8-51F4-4B9F-A260-81AE9A790A91}" name="Ranking" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F31368A8-97F8-4617-9C77-DC026EF77793}" name="Ri" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
-      <calculatedColumnFormula>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{140C70A8-51F4-4B9F-A260-81AE9A790A91}" name="Ranking" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{F31368A8-97F8-4617-9C77-DC026EF77793}" name="Ri" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
+      <calculatedColumnFormula>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabla1[Ri])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B429BF4A-3158-4A7A-8D92-C482E78FF012}" name="Ri²" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="9" xr3:uid="{B429BF4A-3158-4A7A-8D92-C482E78FF012}" name="Ri²" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>Tabla1[[#This Row],[Ri]]^2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabla1[Ri²])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{08AE4843-D5FD-47E8-8CA7-08E35D5BDFC0}" name="Ri+" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+      <calculatedColumnFormula>IF(F2&gt;0,F2,0)</calculatedColumnFormula>
+      <totalsRowFormula>SUM(H2:H31)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D00B87F0-5488-4C30-AE49-27A450E24319}" name="Tabla3" displayName="Tabla3" ref="A1:C61" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:C61" xr:uid="{D00B87F0-5488-4C30-AE49-27A450E24319}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+    <sortCondition ref="B1:B61"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{878DB82A-18EC-43CF-BD9A-78835F8258B3}" name="lugar" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{B915D254-65AF-49D1-BB7A-C513C32F5028}" name="altura" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AA2DC563-6EF7-44EF-A9B1-EFBA4AE2BEFC}" name="Ranking" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0F4F6AF-6ADF-43E7-AB0F-1FB39A738675}" name="Tabla2" displayName="Tabla2" ref="A1:I8" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:I7" xr:uid="{A0F4F6AF-6ADF-43E7-AB0F-1FB39A738675}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CC32112B-304B-4E62-A6CF-6CB3643E99ED}" name="avestruz" dataDxfId="24" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3DF5D915-0EEF-479F-B608-40AFB223705C}" name="carotid" dataDxfId="23" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{156E6A7C-A3C9-4B46-B9C3-A2442AA9874B}" name="brain" dataDxfId="22" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9E6CDF41-F204-467E-B8C5-3A35A9BE9C10}" name="diff" dataDxfId="21" totalsRowDxfId="6">
+      <calculatedColumnFormula>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F6EEC767-F459-40D0-9ACB-2C4C20E0D907}" name="abs.diff" dataDxfId="20" totalsRowDxfId="5">
+      <calculatedColumnFormula>ABS(Tabla2[[#This Row],[diff]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D0676A36-A161-464D-ACFE-3A88F3748C0D}" name="ranking" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(Tabla2[ranking])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{CF5AEEF7-2AEC-4719-9027-B70F6D0B3D81}" name="Ri^2" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="3">
+      <calculatedColumnFormula>Tabla2[[#This Row],[ranking]]^2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabla2[Ri^2])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{40127C85-7E0E-4FCF-9DBF-967916D0EFB9}" name="Ri+" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
+      <calculatedColumnFormula>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabla2[Ri+])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{667E25F4-0C37-4EAB-BC09-B016D2AB394D}" name="Ri-" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
+      <calculatedColumnFormula>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabla2[Ri-])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -629,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA1982-8C94-4604-9857-F261FF7612D1}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +860,7 @@
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -664,8 +882,11 @@
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -673,26 +894,30 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
-        <f t="shared" ref="C2:C21" si="0">B2-6</f>
-        <v>-1</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-2</v>
       </c>
       <c r="D2" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-2.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-8.5</v>
       </c>
       <c r="G2" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72.25</v>
+      </c>
+      <c r="H2" s="11">
+        <f>IF(F2&gt;0,F2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -700,26 +925,30 @@
         <v>2</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-5</v>
       </c>
       <c r="D3" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-14</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-24</v>
       </c>
       <c r="G3" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H31" si="0">IF(F3&gt;0,F3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -727,26 +956,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F4" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="2">
-        <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -754,26 +976,30 @@
         <v>12</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>16.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>272.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -781,26 +1007,30 @@
         <v>12</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>5</v>
       </c>
       <c r="D6" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>16.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>272.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -808,26 +1038,30 @@
         <v>3</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>-3</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-4</v>
       </c>
       <c r="D7" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="F7" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-10.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-18.5</v>
       </c>
       <c r="G7" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342.25</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -835,26 +1069,30 @@
         <v>3</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>-3</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-4</v>
       </c>
       <c r="D8" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="F8" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-10.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-18.5</v>
       </c>
       <c r="G8" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342.25</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -862,26 +1100,30 @@
         <v>10.5</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>3.5</v>
       </c>
       <c r="D9" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>15</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>16</v>
       </c>
       <c r="G9" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -889,26 +1131,30 @@
         <v>15</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>8</v>
       </c>
       <c r="D10" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>19</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>28</v>
       </c>
       <c r="G10" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -916,26 +1162,30 @@
         <v>4.5</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-2.5</v>
       </c>
       <c r="D11" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="F11" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-5.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-11.5</v>
       </c>
       <c r="G11" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132.25</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -943,15 +1193,30 @@
         <v>6</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-1</v>
       </c>
       <c r="D12" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-4.5</v>
+      </c>
+      <c r="G12" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>20.25</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -959,26 +1224,30 @@
         <v>6.75</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-0.25</v>
       </c>
       <c r="D13" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>1</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-1</v>
       </c>
       <c r="G13" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -986,26 +1255,30 @@
         <v>13.5</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>6.5</v>
       </c>
       <c r="D14" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="E14" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>18</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>27</v>
       </c>
       <c r="G14" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1013,26 +1286,30 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="0"/>
-        <v>-3.8</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-4.8</v>
       </c>
       <c r="D15" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="E15" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-13</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-22</v>
       </c>
       <c r="G15" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1040,26 +1317,30 @@
         <v>8.25</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>1.25</v>
       </c>
       <c r="D16" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="E16" s="2">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="F16" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>8</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>6.5</v>
       </c>
       <c r="G16" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42.25</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1067,26 +1348,30 @@
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="0"/>
-        <v>-3</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-4</v>
       </c>
       <c r="D17" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="F17" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-10.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-18.5</v>
       </c>
       <c r="G17" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342.25</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1094,26 +1379,30 @@
         <v>9</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>2</v>
       </c>
       <c r="D18" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="F18" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>10.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>8.5</v>
       </c>
       <c r="G18" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72.25</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1121,26 +1410,30 @@
         <v>7.5</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>0.5</v>
       </c>
       <c r="D19" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="2">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>5.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>2.5</v>
       </c>
       <c r="G19" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.25</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1148,26 +1441,30 @@
         <v>4.5</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-2.5</v>
       </c>
       <c r="D20" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="2">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="F20" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-5.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-11.5</v>
       </c>
       <c r="G20" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132.25</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1175,66 +1472,409 @@
         <v>4.5</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-2.5</v>
       </c>
       <c r="D21" s="6">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E21" s="2">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="F21" s="2">
-        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,Tabla1[[#This Row],[Ranking]]*-1,Tabla1[[#This Row],[Ranking]])</f>
-        <v>-5.5</v>
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-11.5</v>
       </c>
       <c r="G21" s="2">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+        <v>132.25</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>9.75</v>
+      </c>
+      <c r="C22" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>2.75</v>
+      </c>
+      <c r="D22" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>2.75</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14</v>
+      </c>
       <c r="F22" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>14</v>
+      </c>
+      <c r="G22" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>196</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C23" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="C24" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>4.25</v>
+      </c>
+      <c r="D24" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>4.25</v>
+      </c>
+      <c r="E24" s="2">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>21</v>
+      </c>
+      <c r="G24" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>441</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>29</v>
+      </c>
+      <c r="G25" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>841</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>26</v>
+      </c>
+      <c r="G26" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>676</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C27" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-2.5</v>
+      </c>
+      <c r="D27" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F27" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-11.5</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>132.25</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="C28" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F28" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>6.5</v>
+      </c>
+      <c r="G28" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>42.25</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-1</v>
+      </c>
+      <c r="D29" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F29" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-4.5</v>
+      </c>
+      <c r="G29" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>20.25</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>225</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <f>Tabla1[[#This Row],[altura]]-7</f>
+        <v>-4</v>
+      </c>
+      <c r="D31" s="6">
+        <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="F31" s="2">
+        <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
+        <v>-18.5</v>
+      </c>
+      <c r="G31" s="2">
+        <f>Tabla1[[#This Row],[Ri]]^2</f>
+        <v>342.25</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="2">
         <f>SUM(Tabla1[Ri])</f>
-        <v>35</v>
-      </c>
-      <c r="G22" s="2">
+        <v>66</v>
+      </c>
+      <c r="G32" s="2">
         <f>SUM(Tabla1[Ri²])</f>
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <v>8541</v>
+      </c>
+      <c r="H32" s="2">
+        <f>SUM(H2:H31)</f>
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B33" s="2">
+        <f>Tabla1[[#Totals],[Ri+]]</f>
+        <v>250.5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7">
         <f>Tabla1[[#Totals],[Ri]]/SQRT(Tabla1[[#Totals],[Ri²]])</f>
-        <v>0.70581158094771912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>0.71415022047731502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>126</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6">
+      <c r="E34" s="6">
         <f>_xlfn.NORM.S.INV(0.975)</f>
         <v>1.9599639845400536</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>IF(B33&lt;=B34,"Sí","No")</f>
+        <v>No</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2">
-        <f>2*(1-_xlfn.NORM.S.DIST(B23,TRUE))</f>
-        <v>0.48030531914175567</v>
+      <c r="E35" s="2">
+        <f>2*(1-_xlfn.NORM.S.DIST(E33,TRUE))</f>
+        <v>0.47513429455583345</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1244,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,14 +1898,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1284,364 +1924,504 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <f>$E$23*$F$23+(E23*(E23+1))/2-E24</f>
-        <v>116.5</v>
+        <f>$E$33*$F$33+(E33*(E33+1))/2-E34</f>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>11</v>
+      <c r="B3" s="6">
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>22.5</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
-        <v>36</v>
+        <v>26.5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>$E$23*$F$23+(F23*(F23+1))/2-F24</f>
-        <v>283.5</v>
+        <f>$E$33*$F$33+(F33*(F33+1))/2-F34</f>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.875</v>
+      <c r="B4" s="6">
+        <v>2.5</v>
       </c>
       <c r="E4" s="2">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>14.5</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="2">
-        <f>E23*F23/2</f>
-        <v>200</v>
+        <f>E33*F33/2</f>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>7</v>
+      <c r="B5" s="6">
+        <v>2.2000000000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="2">
-        <f>(2^3-2)/12+(2^3-2)/12+(7^3-7)/12+(3^3-3)/12+(2^3-2)/12+(3^3-3)/12+(3^3-3)/12+(2^3-2)/12+(2^3-2)/12</f>
-        <v>36.5</v>
+        <f>((2^3-2)+(2^3-2)+(3^3-3)+(2^3-2)+(3^3-3)+(2^3-2)+(7^3-7)+(2^3-2)+(4^3-4)+(3^3-3)+(3^3-3)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2))/12</f>
+        <v>46.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
-        <v>4</v>
+      <c r="B6" s="6">
+        <v>2.25</v>
       </c>
       <c r="E6" s="2">
-        <v>37.5</v>
+        <v>53.5</v>
       </c>
       <c r="F6" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2">
-        <f>(20*20/(40^2-40))*((40^3-40)/12-I5)</f>
-        <v>1357.3076923076922</v>
+        <f>(30*30/(60^2-60))*((60^3-60)/12-I5)</f>
+        <v>4563.1779661016944</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>9</v>
+      <c r="B7" s="6">
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>37.5</v>
+        <v>53.5</v>
       </c>
       <c r="F7" s="2">
-        <v>33.5</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="2">
         <f>(I2-I4)/SQRT(I6)</f>
-        <v>-2.2664561462197588</v>
+        <v>-3.4196233705532904</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
+      <c r="B8" s="6">
+        <v>2.6</v>
       </c>
       <c r="E8" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="2">
-        <f>_xlfn.NORM.S.DIST(I7,TRUE)</f>
-        <v>1.1711734638738699E-2</v>
+        <f>_xlfn.NORM.S.DIST(I7,TRUE)*2</f>
+        <v>6.27078904269329E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>2.25</v>
       </c>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
-        <v>6.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>10.5</v>
       </c>
-      <c r="B10" s="2">
-        <v>2.25</v>
+      <c r="B10" s="6">
+        <v>2.5499999999999998</v>
       </c>
       <c r="E10" s="2">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E13" s="2">
         <v>35</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>25</v>
       </c>
       <c r="F13" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>6.75</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="2">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1.875</v>
+      </c>
+      <c r="E21" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E15" s="2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B22" s="6">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F22" s="2">
         <v>39</v>
       </c>
-      <c r="F15" s="2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>9.75</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>60</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B28" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E28" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E17" s="2">
-        <v>32</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="E31" s="2">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B32" s="6">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4.875</v>
-      </c>
-      <c r="E19" s="2">
-        <v>33.5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2">
-        <v>19</v>
-      </c>
-      <c r="F21" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <f>COUNTA(E3:E22)</f>
-        <v>20</v>
-      </c>
-      <c r="F23" s="3">
-        <f>COUNTA(F3:F22)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <f>MEDIAN(A3:A22)</f>
-        <v>6.375</v>
-      </c>
-      <c r="B24" s="2">
-        <f>MEDIAN(B3:B22)</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E33" s="3">
+        <f>COUNTA(E3:E32)</f>
+        <v>30</v>
+      </c>
+      <c r="F33" s="3">
+        <f>COUNTA(F3:F32)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f>MEDIAN(A3:A32)</f>
+        <v>7.25</v>
+      </c>
+      <c r="B34" s="6">
+        <f>MEDIAN(B3:B32)</f>
+        <v>2.8</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="2">
-        <f>SUM(E3:E22)</f>
-        <v>493.5</v>
-      </c>
-      <c r="F24" s="2">
-        <f>SUM(F3:F22)</f>
-        <v>326.5</v>
+      <c r="E34" s="2">
+        <f>SUM(E3:E32)</f>
+        <v>1146</v>
+      </c>
+      <c r="F34" s="2">
+        <f>SUM(F3:F32)</f>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -1657,11 +2437,1635 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87533469-700E-4F87-A497-A0C74A6C6622}">
+  <dimension ref="A1:I62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COUNTIF(F2:F61,"&gt;0")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="F2" s="2">
+        <f>IF(A2="CV",C2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>IF(A2="JB",C2,0)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2">
+        <f>COUNTIF(G2:G61,"&gt;0")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F60" si="0">IF(A3="CV",C3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G60" si="1">IF(A3="JB",C3,0)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2">
+        <f>((2^3-2)+(2^3-2)+(3^3-3)+(2^3-2)+(3^3-3)+(2^3-2)+(7^3-7)+(2^3-2)+(4^3-4)+(3^3-3)+(3^3-3)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2))/12</f>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
+        <f>I1*I2/2</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <f>30*30/(60^2-60)*((60^3-60)/12-(I3))</f>
+        <v>4563.1779661016944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.875</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
+        <f>(MIN(F62:G62)-I4)/SQRT(I5)</f>
+        <v>-3.4196233705532904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2">
+        <f>2*_xlfn.NORM.S.DIST(I6,TRUE)</f>
+        <v>6.27078904269329E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="C12" s="11">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="C13" s="11">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="C14" s="11">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C17" s="11">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="C18" s="11">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="C26" s="11">
+        <v>25</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4</v>
+      </c>
+      <c r="C27" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6">
+        <v>4</v>
+      </c>
+      <c r="C28" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C29" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C30" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C31" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C32" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11">
+        <v>32</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="C34" s="11">
+        <v>33</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="6">
+        <v>6</v>
+      </c>
+      <c r="C35" s="11">
+        <v>35</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="6">
+        <v>6</v>
+      </c>
+      <c r="C36" s="11">
+        <v>35</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6">
+        <v>6</v>
+      </c>
+      <c r="C37" s="11">
+        <v>35</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="C38" s="11">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="6">
+        <v>7</v>
+      </c>
+      <c r="C39" s="11">
+        <v>39</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11">
+        <v>39</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6">
+        <v>7</v>
+      </c>
+      <c r="C41" s="11">
+        <v>39</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C42" s="11">
+        <v>41.5</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C43" s="11">
+        <v>41.5</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="C44" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="C45" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="6">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11">
+        <v>45.5</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <v>9</v>
+      </c>
+      <c r="C47" s="11">
+        <v>45.5</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="6">
+        <v>9.75</v>
+      </c>
+      <c r="C48" s="11">
+        <v>47</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="6">
+        <v>10</v>
+      </c>
+      <c r="C49" s="11">
+        <v>48</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="C50" s="11">
+        <v>49</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6">
+        <v>11</v>
+      </c>
+      <c r="C51" s="11">
+        <v>50</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="C52" s="11">
+        <v>51.5</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="C53" s="11">
+        <v>51.5</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="1"/>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="6">
+        <v>12</v>
+      </c>
+      <c r="C54" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6">
+        <v>12</v>
+      </c>
+      <c r="C55" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="6">
+        <v>13</v>
+      </c>
+      <c r="C56" s="11">
+        <v>55.5</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6">
+        <v>13</v>
+      </c>
+      <c r="C57" s="11">
+        <v>55.5</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="1"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="C58" s="11">
+        <v>57</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6">
+        <v>14</v>
+      </c>
+      <c r="C59" s="11">
+        <v>58</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="6">
+        <v>15</v>
+      </c>
+      <c r="C60" s="11">
+        <v>59</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="6">
+        <v>16</v>
+      </c>
+      <c r="C61" s="11">
+        <v>60</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="F61" s="9">
+        <f>IF(A61="CV",C61,0)</f>
+        <v>60</v>
+      </c>
+      <c r="G61" s="9">
+        <f>IF(A61="JB",C61,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="2">
+        <f>$I$1*$I$2+(I1*(I1+1))/2-SUM(F2:F61)</f>
+        <v>219</v>
+      </c>
+      <c r="G62" s="2">
+        <f>$I$1*$I$2+(I2*(I2+1))/2-SUM(G2:G61)</f>
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3069C5-D9EA-4C90-977D-FF17030355F5}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>38.51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39.32</v>
+      </c>
+      <c r="D2" s="2">
+        <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
+        <v>0.81000000000000227</v>
+      </c>
+      <c r="E2" s="2">
+        <f>ABS(Tabla2[[#This Row],[diff]])</f>
+        <v>0.81000000000000227</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>Tabla2[[#This Row],[ranking]]^2</f>
+        <v>25</v>
+      </c>
+      <c r="H2" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <v>39.21</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
+        <v>0.75999999999999801</v>
+      </c>
+      <c r="E3" s="2">
+        <f>ABS(Tabla2[[#This Row],[diff]])</f>
+        <v>0.75999999999999801</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G3" s="2">
+        <f>Tabla2[[#This Row],[ranking]]^2</f>
+        <v>12.25</v>
+      </c>
+      <c r="H3" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
+        <v>0.92999999999999972</v>
+      </c>
+      <c r="E4" s="2">
+        <f>ABS(Tabla2[[#This Row],[diff]])</f>
+        <v>0.92999999999999972</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <f>Tabla2[[#This Row],[ranking]]^2</f>
+        <v>36</v>
+      </c>
+      <c r="H4" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="C5" s="2">
+        <v>38.68</v>
+      </c>
+      <c r="D5" s="2">
+        <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="E5" s="2">
+        <f>ABS(Tabla2[[#This Row],[diff]])</f>
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f>Tabla2[[#This Row],[ranking]]^2</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
+        <v>0.47000000000000597</v>
+      </c>
+      <c r="E6" s="2">
+        <f>ABS(Tabla2[[#This Row],[diff]])</f>
+        <v>0.47000000000000597</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <f>Tabla2[[#This Row],[ranking]]^2</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>38.18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38.94</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
+        <v>0.75999999999999801</v>
+      </c>
+      <c r="E7" s="2">
+        <f>ABS(Tabla2[[#This Row],[diff]])</f>
+        <v>0.75999999999999801</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="2">
+        <f>Tabla2[[#This Row],[ranking]]^2</f>
+        <v>12.25</v>
+      </c>
+      <c r="H7" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="11">
+        <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <f>SUM(Tabla2[ranking])</f>
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(Tabla2[Ri^2])</f>
+        <v>90.5</v>
+      </c>
+      <c r="H8" s="2">
+        <f>SUM(Tabla2[Ri+])</f>
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
+        <f>SUM(Tabla2[Ri-])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <f>MIN(Tabla2[[#Totals],[Ri+]:[Ri-]])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <f>Tabla2[[#Totals],[ranking]]/SQRT(Tabla2[[#Totals],[Ri^2]])</f>
+        <v>2.2074709911560744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <f>_xlfn.NORM.S.INV(0.975)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>IF(B9&lt;=B10,"Sí","No")</f>
+        <v>Sí</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <f>2*(1-_xlfn.NORM.S.DIST(E9,TRUE))</f>
+        <v>2.7281171477617994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D71BE-561D-462D-A3EE-6EBE41149561}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,167 +4085,167 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>0.94399999999999995</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1.7729999999999999</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>0.35349999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1.27</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.20699999999999999</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>0.65649999999999997</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1.6839999999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1.3745000000000001</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1.077</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.20050000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>0.62949999999999995</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1.4355</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>0.9325</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1.5660000000000001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>2.0884999999999998</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.97750000000000004</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.13750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>1.4275</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.84350000000000003</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>2.14</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2.1030000000000002</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.70450000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>0.77200000000000002</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.38400000000000001</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>0.17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>1.0905</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>0.52300000000000002</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>0.51500000000000001</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.57550000000000001</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>1.0269999999999999</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1.7190000000000001</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>1.024</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1.0325</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.20849999999999999</v>
       </c>
     </row>

--- a/salida_muestra.xlsx
+++ b/salida_muestra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC ONE\Documents\bioestadistica_adicional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9C53F-33D1-45E9-8257-0C6FC20ACA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5FB28-66C1-48C4-87B9-B66A990B8A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcoxon" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -233,9 +233,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -328,9 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,9 +359,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,11 +368,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -389,103 +390,10 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -522,28 +430,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -885,7 +808,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8295E76-DC65-4E4F-8414-5C2C5EA1089B}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8295E76-DC65-4E4F-8414-5C2C5EA1089B}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -920,13 +843,32 @@
     <dataField name="Suma de Ranking" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="13">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="22">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="16">
@@ -936,26 +878,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -1033,16 +956,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{613575C9-FAF8-4F2A-8B26-05366180C052}" name="Tabla4" displayName="Tabla4" ref="B1:D17" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{613575C9-FAF8-4F2A-8B26-05366180C052}" name="Tabla4" displayName="Tabla4" ref="B1:D17" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
   <autoFilter ref="B1:D16" xr:uid="{613575C9-FAF8-4F2A-8B26-05366180C052}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BCBAB8B4-B892-49EA-9BC5-D9AC48FA595C}" name="Macho" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="1" xr3:uid="{BCBAB8B4-B892-49EA-9BC5-D9AC48FA595C}" name="Macho" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(Tabla4[Macho])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AE6D7F10-1E5C-4822-B993-98C9110C9047}" name="Hembra" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="2" xr3:uid="{AE6D7F10-1E5C-4822-B993-98C9110C9047}" name="Hembra" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(Tabla4[Hembra])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1ED856F5-7166-4C02-A2DA-30133B17513A}" name="Infante" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="3" xr3:uid="{1ED856F5-7166-4C02-A2DA-30133B17513A}" name="Infante" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(Tabla4[Infante])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1051,15 +974,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8D0C2D73-00FB-47F8-A799-3140D9929A99}" name="Tabla5" displayName="Tabla5" ref="F1:H46" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8D0C2D73-00FB-47F8-A799-3140D9929A99}" name="Tabla5" displayName="Tabla5" ref="F1:H46" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="F1:H46" xr:uid="{8D0C2D73-00FB-47F8-A799-3140D9929A99}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:H46">
     <sortCondition ref="H1:H46"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{50B1881E-4239-416D-AE0E-355A06FA76E2}" name="sexo" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{FEC57959-A17C-47D4-A2F4-8368D483EC4B}" name="peso" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{37A4E934-3AC2-4733-A890-C60460B062BC}" name="Ranking" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{50B1881E-4239-416D-AE0E-355A06FA76E2}" name="sexo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FEC57959-A17C-47D4-A2F4-8368D483EC4B}" name="peso" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{37A4E934-3AC2-4733-A890-C60460B062BC}" name="Ranking" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1250,1014 +1173,1014 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-8.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>72.25</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f t="shared" ref="H2:H31" si="0">IF(F2&gt;0,F2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-24</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>576</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>24</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>24</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>576</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>576</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>18.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-18.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>342.25</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>18.5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-18.5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>342.25</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>10.5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>3.5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>3.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>16</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>16</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>256</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>28</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>28</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>784</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>4.5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-2.5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>2.5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>11.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-11.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>132.25</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>4.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-4.5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>20.25</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>6.75</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-0.25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>0.25</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>13.5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>6.5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>6.5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>27</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>27</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>729</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-4.8</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>4.8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>22</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-22</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>484</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>8.25</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>1.25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>1.25</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>6.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>6.5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>42.25</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-4</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>4</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>18.5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-18.5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>342.25</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>9</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>8.5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>8.5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>72.25</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>7.5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>0.5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>0.5</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2.5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>2.5</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>6.25</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>4.5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-2.5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>2.5</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>11.5</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-11.5</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>132.25</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>4.5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-2.5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>2.5</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>11.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-11.5</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>132.25</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>9.75</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>2.75</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>2.75</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>14</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>14</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>196</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>7.5</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>0.5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>0.5</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>2.5</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>2.5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>6.25</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>11.25</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>4.25</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>4.25</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>21</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>21</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>441</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>16</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>9</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>9</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>29</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>29</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>841</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>13</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>6</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>6</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>26</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>26</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>676</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>4.5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-2.5</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>2.5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>11.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-11.5</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>132.25</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>8.25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>1.25</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>1.25</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>6.5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>6.5</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>42.25</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-1</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>1</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>4.5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-4.5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>20.25</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>10</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>15</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>15</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>225</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>3</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f>Tabla1[[#This Row],[altura]]-7</f>
         <v>-4</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <f>ABS(Tabla1[[#This Row],[altura-μ]])</f>
         <v>4</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>18.5</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <f>IF(Tabla1[[#This Row],[altura-μ]]&lt;0,-1*Tabla1[[#This Row],[Ranking]],Tabla1[[#This Row],[Ranking]])</f>
         <v>-18.5</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <f>Tabla1[[#This Row],[Ri]]^2</f>
         <v>342.25</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="1">
         <f>SUM(Tabla1[Ri])</f>
         <v>66</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <f>SUM(Tabla1[Ri²])</f>
         <v>8541</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <f>SUM(H2:H31)</f>
         <v>250.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <f>Tabla1[[#Totals],[Ri+]]</f>
         <v>250.5</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f>Tabla1[[#Totals],[Ri]]/SQRT(Tabla1[[#Totals],[Ri²]])</f>
         <v>0.71415022047731502</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>126</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f>_xlfn.NORM.S.INV(0.975)</f>
         <v>1.9599639845400536</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="1" t="str">
         <f>IF(B33&lt;=B34,"Sí","No")</f>
         <v>No</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f>2*(1-_xlfn.NORM.S.DIST(E33,TRUE()))</f>
         <v>0.47513429455583345</v>
       </c>
@@ -2286,534 +2209,534 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f>$E$33*$F$33+(E33*(E33+1))/2-E34</f>
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>26.5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f>$E$33*$F$33+(F33*(F33+1))/2-F34</f>
         <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>14.5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>E33*F33/2</f>
         <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>39</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>9.5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>((2^3-2)+(2^3-2)+(3^3-3)+(2^3-2)+(3^3-3)+(2^3-2)+(7^3-7)+(2^3-2)+(4^3-4)+(3^3-3)+(3^3-3)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2))/12</f>
         <v>46.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>53.5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>(30*30/(60^2-60))*((60^3-60)/12-I5)</f>
         <v>4563.1779661016944</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>53.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>(I2-I4)/SQRT(I6)</f>
         <v>-3.4196233705532904</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2.6</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>21</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>17</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>_xlfn.NORM.S.DIST(I7,TRUE())*2</f>
         <v>6.27078904269329E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2.25</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>21</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>10.5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>49</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>59</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>4.5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.75</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>29.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>3.3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>35</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>6.75</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>37</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>55.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>13.5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.75</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>57</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>2.5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>9.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>14.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>8.25</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>5.25</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>43.5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>21</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>9</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>1.8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>45.5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>7.5</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>11</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>41.5</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>4.5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1.875</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>29.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>4.5</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>29.5</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>9.75</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>47</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>26.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>7.5</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>14</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>41.5</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>11.25</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>51.5</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>16</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>60</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>13</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>11.25</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>55.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>51.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>4.5</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>9</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>29.5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>45.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>8.25</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>43.5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>1.8</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>35</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>2.25</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>48</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>7</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>21</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <f>COUNTA(E3:E32)</f>
         <v>30</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f>COUNTA(F3:F32)</f>
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <f>MEDIAN(A3:A32)</f>
         <v>7.25</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <f>MEDIAN(B3:B32)</f>
         <v>2.8</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <f>SUM(E3:E32)</f>
         <v>1146</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <f>SUM(F3:F32)</f>
         <v>684</v>
       </c>
@@ -2838,1226 +2761,1226 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <f>COUNTIF(F2:F61,"&gt;0")</f>
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.75</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f t="shared" ref="F2:F33" si="0">IF(A2="CV",C2,0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f t="shared" ref="G2:G33" si="1">IF(A2="JB",C2,0)</f>
         <v>1.5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f>COUNTIF(G2:G61,"&gt;0")</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.75</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1.5</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f>((2^3-2)+(2^3-2)+(3^3-3)+(2^3-2)+(3^3-3)+(2^3-2)+(7^3-7)+(2^3-2)+(4^3-4)+(3^3-3)+(3^3-3)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2)+(2^3-2))/12</f>
         <v>46.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3.5</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>I1*I2/2</f>
         <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1.8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3.5</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>30*30/(60^2-60)*((60^3-60)/12-(I3))</f>
         <v>4563.1779661016944</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1.875</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>(MIN(F62:G62)-I4)/SQRT(I5)</f>
         <v>-3.4196233705532904</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>7</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>2*_xlfn.NORM.S.DIST(I6,TRUE())</f>
         <v>6.27078904269329E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>9.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>9.5</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2.25</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2.25</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2.25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2.5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>14.5</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>2.5</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>14.5</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2.6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>21</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>21</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>21</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>21</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>21</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>3.3</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>25</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>26.5</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>26.5</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>4.5</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>29.5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>4.5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>29.5</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>4.5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>29.5</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>4.5</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>29.5</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>32</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>5.25</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>33</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <f t="shared" ref="F34:F61" si="2">IF(A34="CV",C34,0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <f t="shared" ref="G34:G61" si="3">IF(A34="JB",C34,0)</f>
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>35</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>6</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>35</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>6</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>35</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>6.75</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>37</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>39</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>39</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>7</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>39</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>7.5</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>41.5</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <f t="shared" si="2"/>
         <v>41.5</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>7.5</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>41.5</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <f t="shared" si="2"/>
         <v>41.5</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>8.25</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>43.5</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>8.25</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>43.5</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>9</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>45.5</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <f t="shared" si="2"/>
         <v>45.5</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>45.5</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>9.75</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>47</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>10</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>48</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>10.5</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>49</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>11</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>50</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>11.25</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>51.5</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <f t="shared" si="2"/>
         <v>51.5</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>11.25</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>51.5</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <f t="shared" si="3"/>
         <v>51.5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>12</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>53.5</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>12</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>53.5</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>13</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>55.5</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>13</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>55.5</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>13.5</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>57</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>14</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>58</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="1">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>15</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>59</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>16</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>60</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <f>$I$1*$I$2+(I1*(I1+1))/2-SUM(F2:F61)</f>
         <v>219</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <f>$I$1*$I$2+(I2*(I2+1))/2-SUM(G2:G61)</f>
         <v>681</v>
       </c>
@@ -4075,310 +3998,310 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>38.51</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>39.32</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
         <v>0.81000000000000227</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>ABS(Tabla2[[#This Row],[diff]])</f>
         <v>0.81000000000000227</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>Tabla2[[#This Row],[ranking]]^2</f>
         <v>25</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>38.450000000000003</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>39.21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
         <v>0.75999999999999801</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>ABS(Tabla2[[#This Row],[diff]])</f>
         <v>0.75999999999999801</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3.5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>Tabla2[[#This Row],[ranking]]^2</f>
         <v>12.25</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>38.270000000000003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
         <v>0.92999999999999972</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>ABS(Tabla2[[#This Row],[diff]])</f>
         <v>0.92999999999999972</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>Tabla2[[#This Row],[ranking]]^2</f>
         <v>36</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>38.520000000000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>38.68</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
         <v>0.15999999999999659</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>ABS(Tabla2[[#This Row],[diff]])</f>
         <v>0.15999999999999659</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>Tabla2[[#This Row],[ranking]]^2</f>
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>38.619999999999997</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>39.090000000000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
         <v>0.47000000000000597</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>ABS(Tabla2[[#This Row],[diff]])</f>
         <v>0.47000000000000597</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>Tabla2[[#This Row],[ranking]]^2</f>
         <v>4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>38.18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>38.94</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>Tabla2[[#This Row],[brain]]-Tabla2[[#This Row],[carotid]]</f>
         <v>0.75999999999999801</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>ABS(Tabla2[[#This Row],[diff]])</f>
         <v>0.75999999999999801</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>3.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f>Tabla2[[#This Row],[ranking]]^2</f>
         <v>12.25</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&gt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>IF(Tabla2[[#This Row],[ranking]]&lt;0,Tabla2[[#This Row],[ranking]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>SUM(Tabla2[ranking])</f>
         <v>21</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f>SUM(Tabla2[Ri^2])</f>
         <v>90.5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f>SUM(Tabla2[Ri+])</f>
         <v>21</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>SUM(Tabla2[Ri-])</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f>MIN(Tabla2[[#Totals],[Ri+]:[Ri-]])</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f>Tabla2[[#Totals],[ranking]]/SQRT(Tabla2[[#Totals],[Ri^2]])</f>
         <v>2.2074709911560744</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>-2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>-_xlfn.NORM.S.INV(0.95)</f>
         <v>-1.6448536269514715</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <f>IF(B9&lt;=B10,"Sí","No")</f>
         <v>No</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f>_xlfn.NORM.S.DIST(E9,1)</f>
         <v>0.986359414261191</v>
       </c>
@@ -4396,400 +4319,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="11.42578125" style="2"/>
-    <col min="10" max="10" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="18.28515625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0.94399999999999995</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1.7729999999999999</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0.35349999999999998</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>0.13750000000000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="1">
         <v>460</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <f>(K2^2/15)</f>
         <v>14106.666666666666</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="14">
         <f>(K2-K4)/15</f>
         <v>3.2666666666666666</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="14">
         <f>SQRT(((45*(45+1))/12)*(1/15+1/15))</f>
         <v>4.7958315233127191</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="14">
         <f>ABS(O2)/P2</f>
         <v>0.68114708591977757</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="14">
         <f>(1-_xlfn.NORM.S.DIST(Q2,TRUE))*2</f>
         <v>0.49577842573013853</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1.27</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.20699999999999999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.192</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.17</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="1">
         <v>164</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <f>(K3^2/15)</f>
         <v>1793.0666666666666</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <f>(K3-K4)/15</f>
         <v>-16.466666666666665</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <f>SQRT(((45*(45+1))/12)*(1/15+1/15))</f>
         <v>4.7958315233127191</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <f t="shared" ref="Q3:Q4" si="0">ABS(O3)/P3</f>
         <v>3.4335373514731642</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="14">
         <f t="shared" ref="R3:R4" si="1">(1-_xlfn.NORM.S.DIST(Q3,TRUE))*2</f>
         <v>5.9576011410578111E-4</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.65649999999999997</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1.6839999999999999</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.192</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="1">
         <v>411</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f>(K4^2/15)</f>
         <v>11261.4</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <f>(K3-K2)/15</f>
         <v>-19.733333333333334</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
         <f>SQRT(((45*(45+1))/12)*(1/15+1/15))</f>
         <v>4.7958315233127191</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <f t="shared" si="0"/>
         <v>4.1146844373929428</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="14">
         <f t="shared" si="1"/>
         <v>3.8770944967847498E-5</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>1.3745000000000001</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1.077</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.20050000000000001</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>0.20050000000000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>0.62949999999999995</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>1.4355</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.51300000000000001</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="16">
         <f>(12/(45*(45+1)))*SUM(L2:L4)-3*(45+1)</f>
         <v>19.455845410628001</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0.9325</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>1.5660000000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.27700000000000002</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <f>_xlfn.CHISQ.DIST.RT(K6,2)</f>
         <v>5.9595963939971986E-5</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>2.0884999999999998</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0.97750000000000004</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.13750000000000001</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>0.20849999999999999</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1.4275</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>0.84350000000000003</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0.59099999999999997</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>8</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>2.14</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>2.1030000000000002</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.70450000000000002</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>9</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>0.77200000000000002</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>0.38400000000000001</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.32</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>0.27700000000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>10</v>
       </c>
       <c r="L11"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>0.17</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>1.0905</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>11</v>
       </c>
       <c r="L12"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>0.52300000000000002</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.80249999999999999</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>0.32</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>12</v>
       </c>
       <c r="J13"/>
@@ -4797,22 +4721,22 @@
       <c r="L13"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>0.57550000000000001</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>0.35349999999999998</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>13</v>
       </c>
       <c r="J14"/>
@@ -4820,22 +4744,22 @@
       <c r="L14"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>1.0269999999999999</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>1.7190000000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>14</v>
       </c>
       <c r="J15"/>
@@ -4843,22 +4767,22 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1.024</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>1.0325</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0.20849999999999999</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>15</v>
       </c>
       <c r="J16"/>
@@ -4866,28 +4790,28 @@
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f>AVERAGE(Tabla4[Macho])</f>
         <v>1.0329333333333333</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <f>AVERAGE(Tabla4[Hembra])</f>
         <v>1.1496</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <f>AVERAGE(Tabla4[Infante])</f>
         <v>0.35386666666666666</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>0.51500000000000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>16</v>
       </c>
       <c r="J17"/>
@@ -4895,28 +4819,28 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <f>_xlfn.VAR.S(Tabla4[Macho])</f>
         <v>0.3094262452380952</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f>_xlfn.VAR.S(Tabla4[Hembra])</f>
         <v>0.30372315</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <f>_xlfn.VAR.S(Tabla4[Infante])</f>
         <v>4.1297445238095296E-2</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>0.52300000000000002</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>17</v>
       </c>
       <c r="J18"/>
@@ -4924,13 +4848,13 @@
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>0.57550000000000001</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>18</v>
       </c>
       <c r="J19"/>
@@ -4938,13 +4862,13 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>0.59099999999999997</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>19</v>
       </c>
       <c r="J20"/>
@@ -4952,13 +4876,13 @@
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>0.62949999999999995</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>20</v>
       </c>
       <c r="J21"/>
@@ -4966,13 +4890,13 @@
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>0.65649999999999997</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>21</v>
       </c>
       <c r="J22"/>
@@ -4980,13 +4904,13 @@
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>0.70450000000000002</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>22</v>
       </c>
       <c r="J23"/>
@@ -4994,13 +4918,13 @@
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>0.77200000000000002</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>23</v>
       </c>
       <c r="J24"/>
@@ -5008,13 +4932,13 @@
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>0.77600000000000002</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>24</v>
       </c>
       <c r="J25"/>
@@ -5022,13 +4946,13 @@
       <c r="L25"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>0.80249999999999999</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>25</v>
       </c>
       <c r="J26"/>
@@ -5036,222 +4960,222 @@
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>0.84350000000000003</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>0.9325</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>0.94399999999999995</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>0.97750000000000004</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>1.024</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>1.0269999999999999</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>1.0325</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>1.077</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>1.0905</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>1.27</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>1.3745000000000001</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>1.4275</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>1.4355</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>1.5660000000000001</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>1.6839999999999999</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>1.7190000000000001</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>1.7729999999999999</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>2.0884999999999998</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>2.1030000000000002</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>2.14</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>45</v>
       </c>
     </row>
